--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE13BDD-04AA-4E87-BB0F-2CF4D6D99F2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341AD616-5762-473D-A987-B853E8812951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17325" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>效果树</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -130,6 +127,10 @@
   </si>
   <si>
     <t>{'levelFactors':[{'type':'FIXED','value':[1]},{'type':'CUSTOM','value':[1,1,1,1,1,1,1,1,1,1]},{'type':'LINEAR','value':[0,0]}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_NormalAttack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +497,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -509,14 +510,14 @@
     <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -544,13 +545,13 @@
         <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -571,13 +572,13 @@
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -598,13 +599,13 @@
         <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -630,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -659,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341AD616-5762-473D-A987-B853E8812951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBF7414-600F-48C7-A53F-E8E53EE38F4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17325" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{A3706937-B538-4EFA-9C63-69CEFDEDFA50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Target
+TargetArea
+CasterArea
+CasterFront</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -131,6 +170,54 @@
   </si>
   <si>
     <t>Skill_NormalAttack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLoop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能循环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CasterArea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageScale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'x':1,'y':1,'z':1}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +261,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -493,11 +595,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -507,25 +609,26 @@
     <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -542,19 +645,28 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -569,19 +681,28 @@
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -596,19 +717,28 @@
         <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>2001</v>
       </c>
@@ -631,13 +761,22 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="3">
         <v>2002</v>
       </c>
@@ -654,15 +793,24 @@
         <v>13</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -670,5 +818,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBF7414-600F-48C7-A53F-E8E53EE38F4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6849FB13-AF52-4D21-93E7-E0588155629B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17325" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{A3706937-B538-4EFA-9C63-69CEFDEDFA50}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{F4A95D37-3388-4CAD-9FF0-12AEE5949446}">
       <text>
         <r>
           <rPr>
@@ -47,10 +47,64 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-Target
-TargetArea
-CasterArea
-CasterFront</t>
+友方：friend
+敌方：enemy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{C490CCE0-4B6A-45F7-9576-380B715BFE9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+地面：land
+空中：sky</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{A3706937-B538-4EFA-9C63-69CEFDEDFA50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+target
+targetarea
+casterarea
+casterfront</t>
         </r>
       </text>
     </comment>
@@ -59,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -197,14 +251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CasterArea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害范围</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,6 +264,50 @@
   </si>
   <si>
     <t>{'x':1,'y':1,'z':1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标阵营</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetCamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy&amp;friend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>land</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky&amp;land</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>casterarea</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -610,25 +700,28 @@
     <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="7.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -651,22 +744,28 @@
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -687,22 +786,28 @@
         <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,22 +828,28 @@
         <v>12</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>2001</v>
       </c>
@@ -761,22 +872,28 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="3">
+        <v>47</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="3">
         <v>1.5</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="3">
         <v>2002</v>
       </c>
@@ -799,18 +916,24 @@
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="3">
+        <v>48</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
